--- a/file_exp/edu_results.xlsx
+++ b/file_exp/edu_results.xlsx
@@ -479,7 +479,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.967737003058104</v>
+        <v>0.9587155963302753</v>
       </c>
     </row>
     <row r="3">
@@ -501,7 +501,7 @@
         <v>0.958904109589041</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9941520467836258</v>
+        <v>0.9853801169590644</v>
       </c>
     </row>
     <row r="4">
@@ -523,7 +523,7 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9197860962566844</v>
+        <v>0.9224598930481284</v>
       </c>
     </row>
     <row r="5">
@@ -539,13 +539,13 @@
         <v>59</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.72</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7452380952380953</v>
+        <v>0.7539682539682541</v>
       </c>
     </row>
   </sheetData>
